--- a/Pato_Simulation_Notes.xlsx
+++ b/Pato_Simulation_Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bd9b53571f54ff3/Desktop/Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnav\OneDrive\Documents\GitHub\Pato-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE511E7-4B76-4C08-8B57-4C641211677D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0441148-63AF-432A-9892-01A451A95B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14836" xr2:uid="{9B449FCA-9A66-4D80-97D9-C647B67C11E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9B449FCA-9A66-4D80-97D9-C647B67C11E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,10 +404,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D4F09D-F7E6-4561-9925-F5EA8C34FC56}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>